--- a/audio.xlsx
+++ b/audio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ3"/>
+  <dimension ref="A1:CE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,20 +806,45 @@
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
+          <t>Spectral Centroid Mean</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>Spectral Rolloff Mean</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Chroma Mean</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>MFCC Delta Mean</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>MFCC Delta-Delta Mean</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
           <t>Tempo</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Tempogram Mean</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Genre</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>File Name</t>
         </is>
@@ -1051,17 +1076,32 @@
         </is>
       </c>
       <c r="BW2" t="n">
+        <v>2119.935708507161</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>3740.646295649135</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.5225141048431396</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.003317055990919471</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>-0.0008198961149901152</v>
+      </c>
+      <c r="CB2" t="n">
         <v>140.625</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="CC2" t="n">
         <v>0.05418257732088951</v>
       </c>
-      <c r="BY2" t="inlineStr">
+      <c r="CD2" t="inlineStr">
         <is>
           <t>matureCocoAudio</t>
         </is>
       </c>
-      <c r="BZ2" t="inlineStr">
+      <c r="CE2" t="inlineStr">
         <is>
           <t>Mature.mp3</t>
         </is>
@@ -1293,17 +1333,32 @@
         </is>
       </c>
       <c r="BW3" t="n">
+        <v>2659.806949055563</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>6116.720143869162</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.6143437027931213</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.005157127045094967</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>-0.0007487792754545808</v>
+      </c>
+      <c r="CB3" t="n">
         <v>110.2941176470588</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="CC3" t="n">
         <v>0.0551000158274139</v>
       </c>
-      <c r="BY3" t="inlineStr">
+      <c r="CD3" t="inlineStr">
         <is>
           <t>tenderCocoAudio</t>
         </is>
       </c>
-      <c r="BZ3" t="inlineStr">
+      <c r="CE3" t="inlineStr">
         <is>
           <t>Tender.mp3</t>
         </is>

--- a/audio.xlsx
+++ b/audio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE3"/>
+  <dimension ref="A1:CE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,258 +1109,772 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>0.06229909269532558</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0009618601226077493</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.693247835553049</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1409127254339112</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1591247369359698</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6784146205089825</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.004266611353474615</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1133667769962764</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-30.83764477346849</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9914387418512122</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5464891309415802</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3745401404122739</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.2283580245306424</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.3295531534348277</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.052102929295907</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.1269401657399593</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1066959934774564</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01319549848245344</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.106227744907872</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.01525681992262466</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.09126118746581574</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.01062226623350544</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.004615022258433485</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.03416741574479926</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.006511750214337119</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.01288353961478269</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.005034212066781302</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.06464360711032585</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.002172185202792875</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.004132780202864685</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.01262218114652898</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.03731940358252702</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.006321855411730743</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.024434863378226</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3.276775611407511e-06</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2.217938809161874e-08</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0009135926101839166</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-3.355724724113371e-05</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-2.086086066484275e-05</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.0003079583356892329</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7.406003385513289e-07</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-3.516756309474572e-05</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.008084039248007047</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0003138406555058029</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.0004612729481892991</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.0001655980089311129</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0005290965256481238</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.0001978251464311485</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.244988044872312e-05</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>-0.000266949290376507</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>-0.000107569850902635</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.0001247504853623675</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.0001287237974650874</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>-8.585921741380444e-05</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>-0.0001868143142814571</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.465298168032209e-06</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>-7.715367691848416e-07</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>-6.193859208141331e-06</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>-8.470278096047982e-07</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>7.893845224170839e-06</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>-1.140042769211111e-07</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>4.997018735926735e-05</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2.646064781778698e-06</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3.095008244818194e-08</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>-8.5860969564253e-07</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>5.766010045026963e-06</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>2.159185759472398e-06</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.321703730922087e-05</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>221</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>-1.495467586209998e-06</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>2.581026819825638e-06</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.05418696627020836</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>-10.32591247558594</v>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>(0.8010698556900024+0.0015770448371767998j)</t>
+        </is>
+      </c>
+      <c r="BW3" t="n">
+        <v>2963.433912267771</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>5853.483583965426</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.5696207284927368</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.003848865861073136</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.0002735613670665771</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>193.9655172413793</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.05872192767975817</v>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>matureCocoAudio</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>Mature 1.mp3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>0.04470865048920157</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>0.0004164507069919798</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2.936146694759529</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.1291785663100609</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E4" t="n">
         <v>0.1748349565196923</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>0.3046394289975069</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>0.004334968634495792</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>0.06340719463821638</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>-32.76270895037442</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>1.992112431931836</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K4" t="n">
         <v>-0.06325394850505041</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L4" t="n">
         <v>0.4947961866191268</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M4" t="n">
         <v>-0.07378702235478642</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N4" t="n">
         <v>0.2671067321340684</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O4" t="n">
         <v>0.07861708256762037</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P4" t="n">
         <v>0.03855565577965512</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q4" t="n">
         <v>-0.05080929100229523</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R4" t="n">
         <v>0.01794022186902958</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S4" t="n">
         <v>0.005826885678957103</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T4" t="n">
         <v>0.08615177645863684</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U4" t="n">
         <v>-0.05016232142969993</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V4" t="n">
         <v>0.01264422119740232</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W4" t="n">
         <v>0.002706343476025961</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X4" t="n">
         <v>0.06033021063897512</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y4" t="n">
         <v>0.01215779679989461</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z4" t="n">
         <v>0.03222946243268263</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA4" t="n">
         <v>0.007776775047920821</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB4" t="n">
         <v>0.04596526805393336</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC4" t="n">
         <v>0.002547839647148311</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD4" t="n">
         <v>0.006632611498304559</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE4" t="n">
         <v>0.02073010801676385</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF4" t="n">
         <v>0.03815917236699796</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG4" t="n">
         <v>0.004894918899620674</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH4" t="n">
         <v>0.02667107967832004</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI4" t="n">
         <v>5.986627925771911e-06</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ4" t="n">
         <v>9.674579626872473e-09</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK4" t="n">
         <v>0.0001074093824665912</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL4" t="n">
         <v>-4.243742626588385e-05</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM4" t="n">
         <v>-1.658790841715715e-05</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN4" t="n">
         <v>-0.0002080239889169304</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO4" t="n">
         <v>1.541446175773122e-06</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP4" t="n">
         <v>-2.735603884557511e-05</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ4" t="n">
         <v>0.006888008479315007</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR4" t="n">
         <v>0.0008288470613478297</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS4" t="n">
         <v>2.085254897608564e-05</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT4" t="n">
         <v>0.0003323970175800804</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU4" t="n">
         <v>0.0003357487536690293</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV4" t="n">
         <v>0.0002393729331936721</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW4" t="n">
         <v>-8.818308567904042e-05</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX4" t="n">
         <v>0.0003424011649987022</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY4" t="n">
         <v>-0.0001670669285568841</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ4" t="n">
         <v>-5.915602137382982e-05</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA4" t="n">
         <v>2.274097663050739e-05</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB4" t="n">
         <v>0.0001353715086185764</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC4" t="n">
         <v>7.743066701138284e-07</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD4" t="n">
         <v>5.596309252500215e-07</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE4" t="n">
         <v>7.640451772121577e-09</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF4" t="n">
         <v>5.604911389034146e-05</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG4" t="n">
         <v>5.978073415893519e-07</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH4" t="n">
         <v>2.415207971174029e-05</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI4" t="n">
         <v>8.847921820387307e-07</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ4" t="n">
         <v>5.583300728325825e-06</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK4" t="n">
         <v>-1.055650357556476e-07</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL4" t="n">
         <v>-1.946282425379645e-07</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM4" t="n">
         <v>2.632312546657735e-07</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN4" t="n">
         <v>6.807949811413563e-06</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO4" t="n">
         <v>-1.716141155192955e-07</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP4" t="n">
         <v>6.494478332895498e-06</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ4" t="n">
         <v>107</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR4" t="n">
         <v>4.22169193825539e-07</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS4" t="n">
         <v>-8.497080671077128e-06</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT4" t="n">
         <v>0.02585665881633759</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU4" t="n">
         <v>-13.74996280670166</v>
       </c>
-      <c r="BV3" t="inlineStr">
+      <c r="BV4" t="inlineStr">
         <is>
           <t>(0.699974775314331+0.0002201713214162737j)</t>
         </is>
       </c>
-      <c r="BW3" t="n">
+      <c r="BW4" t="n">
         <v>2659.806949055563</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BX4" t="n">
         <v>6116.720143869162</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BY4" t="n">
         <v>0.6143437027931213</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="BZ4" t="n">
         <v>0.005157127045094967</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CA4" t="n">
         <v>-0.0007487792754545808</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CB4" t="n">
         <v>110.2941176470588</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CC4" t="n">
         <v>0.0551000158274139</v>
       </c>
-      <c r="CD3" t="inlineStr">
+      <c r="CD4" t="inlineStr">
         <is>
           <t>tenderCocoAudio</t>
         </is>
       </c>
-      <c r="CE3" t="inlineStr">
+      <c r="CE4" t="inlineStr">
         <is>
           <t>Tender.mp3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.04544995429112274</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.001005258831794789</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.814385770297702</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1299672890516296</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1704251751619167</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3551861258821891</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.004408463502930082</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0750748257482575</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-30.87779452131773</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.07202459623768</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.4691371690190058</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4138895317967841</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1771607239797192</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.07983034506290021</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.08900350914119622</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.0008674104545800437</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.008980563960906868</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.05628546068354697</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.05345633816685154</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.07360471373770237</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.06281268161591859</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.01524419905352961</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.00453370198809671</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.03294245758583294</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.01070369902389172</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.01973162644128552</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.01214750369159639</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.05530497351487798</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.004207307601802721</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.008797564386250624</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.01835298667463179</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.03559468641859139</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.007266267960015505</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0220602378661623</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>5.981718841782003e-06</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>5.011791954358072e-09</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-4.337473615356359e-05</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-3.418409623814043e-05</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-1.139738899749837e-05</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-8.409411792403822e-05</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.249708882220095e-06</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.400847341806711e-05</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.00683759845984962</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0006956864065744258</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.0002833872407801507</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.0004897122009318246</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0002434249231210702</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-2.29168352006867e-05</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>-6.250980075760642e-05</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>6.951404708624819e-05</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>3.322068236614218e-05</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1.167718265729575e-05</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>4.103104913570295e-05</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>-0.0002610258988411339</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>-0.0001297565666601476</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>3.922337021349909e-06</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>1.246876094301158e-07</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>5.234146969010802e-06</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>2.985190633511154e-06</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>3.765103590121042e-06</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.767568163306492e-07</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>-5.775613410513525e-05</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>8.245172941705586e-07</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>9.89188604638126e-07</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>2.468057508678145e-05</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>3.654205511739799e-05</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>7.38553889281753e-06</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>-6.839626239863009e-06</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>190</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>4.386280352264293e-07</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1.625323784537613e-05</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0.05598010122776031</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>-11.55392742156982</v>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>(0.7733917832374573+0.0004894520388916135j)</t>
+        </is>
+      </c>
+      <c r="BW5" t="n">
+        <v>2670.430271557576</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>5872.60340194022</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.5695317983627319</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.002184985438361764</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>-0.0004320259322412312</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>181.4516129032258</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.05432363258733764</v>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>tenderCocoAudio</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>Tender 1.mp3</t>
         </is>
       </c>
     </row>
